--- a/public/TMDK pontozolap-Irasbeli - kitoltott.xlsx
+++ b/public/TMDK pontozolap-Irasbeli - kitoltott.xlsx
@@ -70,31 +70,15 @@
     <t xml:space="preserve">a</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Georgia"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">A dolgozat címe:
+    <t xml:space="preserve">A dolgozat címe:
 </t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">aaaa</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Georgia"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">A szekció neve:
+    <t xml:space="preserve">A szekció neve:
 </t>
-    </r>
   </si>
   <si>
     <r>
@@ -258,7 +242,7 @@
     <t xml:space="preserve">sssss</t>
   </si>
   <si>
-    <t xml:space="preserve">Elérhető maximális pontszám 45 pont.</t>
+    <t xml:space="preserve">Elérhető maximális pontszám: 45.</t>
   </si>
   <si>
     <t xml:space="preserve">A dolgozatra kapott összpontszám:</t>
@@ -278,7 +262,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="#,##0"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="13">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -336,6 +320,7 @@
       <sz val="12"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -349,12 +334,6 @@
       <sz val="12"/>
       <name val="Times New Roman"/>
       <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
       <charset val="1"/>
     </font>
     <font>
@@ -414,92 +393,96 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="3" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="3" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -697,239 +680,239 @@
   </sheetPr>
   <dimension ref="A1:L1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A15" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A22" activeCellId="0" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75390625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="56.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="44.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="33.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16376" style="0" width="12.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="56.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="44.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="33.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16376" style="1" width="12.8"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="27.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
     </row>
     <row r="3" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
     </row>
     <row r="9" customFormat="false" ht="36.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
     </row>
     <row r="10" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
     </row>
     <row r="11" customFormat="false" ht="36.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
     </row>
     <row r="12" customFormat="false" ht="47.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="13" t="n">
+      <c r="C12" s="14" t="n">
         <v>4</v>
       </c>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
     </row>
     <row r="13" customFormat="false" ht="51.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
     </row>
     <row r="14" customFormat="false" ht="48.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="13" t="n">
+      <c r="C14" s="14" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="51.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
     </row>
     <row r="16" customFormat="false" ht="48.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="13" t="n">
+      <c r="C16" s="14" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="51.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="16" t="s">
+      <c r="A17" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
     </row>
     <row r="18" customFormat="false" ht="48.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="13" t="n">
+      <c r="C18" s="14" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="51.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="16" t="s">
+      <c r="A19" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
     </row>
     <row r="20" customFormat="false" ht="48.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="13" t="n">
+      <c r="C20" s="14" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="51.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="16" t="s">
+      <c r="A21" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
     </row>
     <row r="22" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="17" t="s">
+      <c r="A22" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="13" t="n">
+      <c r="C22" s="14" t="n">
         <f aca="false">SUM(C12,C14,C16,C18,C20)</f>
         <v>16</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="18"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="19"/>
+      <c r="A23" s="19"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="20"/>
     </row>
     <row r="24" customFormat="false" ht="21.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="20" t="s">
+      <c r="A24" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="B24" s="12" t="s">
+      <c r="B24" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="21"/>
+      <c r="C24" s="22"/>
     </row>
     <row r="1048553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
